--- a/coba.xlsx
+++ b/coba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 7\Tugas Akhir\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5DE5F-F411-4549-967D-D9EFADEA8F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83831B7A-9159-42F4-9AEB-8DB0607D1179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2A278D0-F46F-4F00-BEE8-820219579913}"/>
   </bookViews>
@@ -7917,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACFE672-643D-47E5-BF40-1E63ED56A400}">
   <dimension ref="A1:B1497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9180,7 +9180,7 @@
         <v>27 Maret - 7 Mei 2021, Kompetisi Desain dan Prototipe #KendaraanListrik PLN ICE 2021. ikuti dan daftarkan karya kalian. Cek di bagian daftar acara di sini: https://t.co/qGjF2Y7D3r #MahasiswaTeknikMesin #KendaraanListrik #SepedaMotorListrik #MobilListrik https://t.co/ypeJ98xjnf</v>
       </c>
       <c r="B140" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
